--- a/config_prac/sizelife_prac.xlsx
+++ b/config_prac/sizelife_prac.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D:$D</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +47,16 @@
     <t>onset</t>
   </si>
   <si>
-    <t>s073.jpg</t>
+    <t>s058.jpg</t>
+  </si>
+  <si>
+    <t>l.jpg</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>s064.jpg</t>
   </si>
   <si>
     <t>s.jpg</t>
@@ -53,37 +65,28 @@
     <t>N</t>
   </si>
   <si>
+    <t>s081.jpg</t>
+  </si>
+  <si>
     <t>s002.jpg</t>
   </si>
   <si>
-    <t>l.jpg</t>
-  </si>
-  <si>
-    <t>s063.jpg</t>
-  </si>
-  <si>
-    <t>s079.jpg</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>s035.jpg</t>
+    <t>s032.jpg</t>
+  </si>
+  <si>
+    <t>s016.jpg</t>
+  </si>
+  <si>
+    <t>s080.jpg</t>
+  </si>
+  <si>
+    <t>s050.jpg</t>
   </si>
   <si>
     <t>s096.jpg</t>
   </si>
   <si>
-    <t>s047.jpg</t>
-  </si>
-  <si>
-    <t>s001.jpg</t>
-  </si>
-  <si>
-    <t>s059.jpg</t>
-  </si>
-  <si>
-    <t>s088.jpg</t>
+    <t>s017.jpg</t>
   </si>
 </sst>
 </file>
@@ -705,8 +708,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1240,237 +1252,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="4" width="8.72727272727273" style="2"/>
+    <col min="5" max="5" width="8.72727272727273" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B2:E11">
+    <sortCondition ref="E2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
